--- a/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\919\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\9.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2785,16 +2785,10 @@
     <t>02312QWY</t>
   </si>
   <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/aarch64/Packages/RAID-3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-aarch64.rpm</t>
-  </si>
-  <si>
     <t>2021.04.22</t>
   </si>
   <si>
     <t>85KB</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/RAID-3004iMR_3108_3408iMR_3416iMR_3508_3516-openEuler20.03-megaraid_sas-07.714.04.00-1-x86_64.rpm</t>
   </si>
   <si>
     <t>2021.10.18</t>
@@ -3499,6 +3493,28 @@
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/NVIDIA-Linux-x86_64-460.73.01.run</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/aarch64/Packages/kmod-megaraid_sas-07.714.04.00-aarch64.rpm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kmod-megaraid_sas-07.714.04.00-1-x86_64.rpm</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3506,7 +3522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3570,6 +3586,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4095,8 +4120,8 @@
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I189" sqref="I189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6761,7 +6786,7 @@
         <v>226</v>
       </c>
       <c r="Q50" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -8414,7 +8439,7 @@
         <v>194</v>
       </c>
       <c r="Q82" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -8465,7 +8490,7 @@
         <v>373</v>
       </c>
       <c r="Q83" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -8516,7 +8541,7 @@
         <v>377</v>
       </c>
       <c r="Q84" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
@@ -8566,7 +8591,7 @@
         <v>381</v>
       </c>
       <c r="Q85" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -8616,7 +8641,7 @@
         <v>385</v>
       </c>
       <c r="Q86" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -8666,7 +8691,7 @@
         <v>389</v>
       </c>
       <c r="Q87" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -9032,7 +9057,7 @@
         <v>422</v>
       </c>
       <c r="D95" s="60" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E95" s="38" t="s">
         <v>22</v>
@@ -9066,7 +9091,7 @@
         <v>427</v>
       </c>
       <c r="P95" s="61" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Q95" s="30" t="s">
         <v>34</v>
@@ -9856,7 +9881,7 @@
         <v>422</v>
       </c>
       <c r="D111" s="60" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E111" s="38" t="s">
         <v>35</v>
@@ -9890,7 +9915,7 @@
         <v>427</v>
       </c>
       <c r="P111" s="61" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Q111" s="30" t="s">
         <v>37</v>
@@ -10419,7 +10444,7 @@
         <v>110</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I122" s="27" t="s">
         <v>26</v>
@@ -10595,7 +10620,7 @@
         <v>538</v>
       </c>
       <c r="Q125" s="30" t="s">
-        <v>539</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.15">
@@ -10627,11 +10652,11 @@
         <v>128</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>130</v>
@@ -10645,8 +10670,8 @@
       <c r="P126" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="Q126" s="31" t="s">
-        <v>542</v>
+      <c r="Q126" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -10678,7 +10703,7 @@
         <v>26</v>
       </c>
       <c r="J127" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K127" s="27"/>
       <c r="L127" s="27" t="s">
@@ -10711,7 +10736,7 @@
         <v>20</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>22</v>
@@ -10723,7 +10748,7 @@
         <v>479</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>64</v>
@@ -10733,22 +10758,22 @@
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>105</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O128" s="13" t="s">
         <v>114</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Q128" s="55" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.15">
@@ -10756,7 +10781,7 @@
         <v>1000</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>20</v>
@@ -10784,7 +10809,7 @@
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>130</v>
@@ -10793,13 +10818,13 @@
         <v>286</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P129" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="Q129" s="31" t="s">
-        <v>542</v>
+      <c r="Q129" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.15">
@@ -10807,19 +10832,19 @@
         <v>1000</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>127</v>
@@ -10831,26 +10856,26 @@
         <v>128</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N130" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="O130" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="P130" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="O130" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="P130" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q130" s="31" t="s">
-        <v>542</v>
+      <c r="Q130" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="131" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10882,7 +10907,7 @@
         <v>64</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>84</v>
@@ -10985,7 +11010,7 @@
         <v>26</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L133" s="38" t="s">
         <v>36</v>
@@ -11067,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E135" s="27" t="s">
         <v>35</v>
@@ -11079,7 +11104,7 @@
         <v>479</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I135" s="27" t="s">
         <v>64</v>
@@ -11088,22 +11113,22 @@
         <v>331</v>
       </c>
       <c r="L135" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M135" s="27" t="s">
         <v>105</v>
       </c>
       <c r="N135" s="47" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O135" s="13" t="s">
         <v>114</v>
       </c>
       <c r="P135" s="34" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Q135" s="54" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -11111,7 +11136,7 @@
         <v>19</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C136" s="27" t="s">
         <v>20</v>
@@ -11135,7 +11160,7 @@
         <v>26</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L136" s="38" t="s">
         <v>36</v>
@@ -11161,13 +11186,13 @@
         <v>422</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C137" s="27" t="s">
         <v>422</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E137" s="27" t="s">
         <v>35</v>
@@ -11185,7 +11210,7 @@
         <v>365</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L137" s="38" t="s">
         <v>36</v>
@@ -11235,7 +11260,7 @@
         <v>26</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L138" s="27" t="s">
         <v>36</v>
@@ -11267,7 +11292,7 @@
         <v>20</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E139" s="27" t="s">
         <v>35</v>
@@ -11276,7 +11301,7 @@
         <v>23</v>
       </c>
       <c r="G139" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H139" s="27" t="s">
         <v>283</v>
@@ -11303,7 +11328,7 @@
         <v>287</v>
       </c>
       <c r="P139" s="35" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q139" s="27" t="s">
         <v>362</v>
@@ -11314,13 +11339,13 @@
         <v>1000</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C140" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E140" s="27" t="s">
         <v>35</v>
@@ -11329,7 +11354,7 @@
         <v>23</v>
       </c>
       <c r="G140" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>283</v>
@@ -11338,22 +11363,22 @@
         <v>128</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L140" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M140" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N140" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="P140" s="48" t="s">
         <v>554</v>
-      </c>
-      <c r="O140" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="P140" s="48" t="s">
-        <v>556</v>
       </c>
       <c r="Q140" s="27" t="s">
         <v>362</v>
@@ -11361,16 +11386,16 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A141" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>570</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="E141" s="27" t="s">
         <v>35</v>
@@ -11382,28 +11407,28 @@
         <v>101</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J141" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="L141" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="K141" s="15" t="s">
+      <c r="M141" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="L141" s="15" t="s">
+      <c r="N141" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="M141" s="15" t="s">
+      <c r="O141" s="15" t="s">
         <v>577</v>
-      </c>
-      <c r="N141" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="O141" s="15" t="s">
-        <v>579</v>
       </c>
       <c r="Q141" s="15" t="s">
         <v>90</v>
@@ -11429,19 +11454,19 @@
         <v>23</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I142" s="27" t="s">
         <v>128</v>
       </c>
       <c r="J142" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>358</v>
@@ -11477,19 +11502,19 @@
         <v>23</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I143" s="27" t="s">
         <v>128</v>
       </c>
       <c r="J143" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="L143" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L143" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>358</v>
@@ -11528,16 +11553,16 @@
         <v>220</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>51</v>
@@ -11549,10 +11574,10 @@
         <v>225</v>
       </c>
       <c r="P144" s="26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q144" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -11578,16 +11603,16 @@
         <v>220</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>51</v>
@@ -11599,10 +11624,10 @@
         <v>53</v>
       </c>
       <c r="P145" s="26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q145" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -11610,13 +11635,13 @@
         <v>116</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>35</v>
@@ -11628,7 +11653,7 @@
         <v>101</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>102</v>
@@ -11637,16 +11662,16 @@
         <v>103</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M146" s="7" t="s">
         <v>338</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P146" s="34"/>
       <c r="Q146" s="7" t="s">
@@ -11658,13 +11683,13 @@
         <v>116</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>22</v>
@@ -11676,7 +11701,7 @@
         <v>101</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>102</v>
@@ -11685,16 +11710,16 @@
         <v>103</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>338</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P147" s="34"/>
       <c r="Q147" s="7" t="s">
@@ -11736,7 +11761,7 @@
         <v>213</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>130</v>
@@ -11748,7 +11773,7 @@
         <v>180</v>
       </c>
       <c r="P148" s="34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q148" s="7" t="s">
         <v>90</v>
@@ -11756,16 +11781,16 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A149" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>22</v>
@@ -11777,7 +11802,7 @@
         <v>101</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I149" s="15" t="s">
         <v>102</v>
@@ -11786,16 +11811,16 @@
         <v>120</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M149" s="15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q149" s="15" t="s">
         <v>90</v>
@@ -11806,13 +11831,13 @@
         <v>60</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E150" s="15" t="s">
         <v>35</v>
@@ -11824,31 +11849,31 @@
         <v>62</v>
       </c>
       <c r="H150" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="J150" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="I150" s="15" t="s">
+      <c r="K150" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="J150" s="15" t="s">
+      <c r="L150" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="K150" s="15" t="s">
+      <c r="M150" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L150" s="8" t="s">
+      <c r="N150" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="M150" s="15" t="s">
+      <c r="O150" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="N150" s="15" t="s">
+      <c r="Q150" s="30" t="s">
         <v>610</v>
-      </c>
-      <c r="O150" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q150" s="30" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.15">
@@ -11856,13 +11881,13 @@
         <v>60</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E151" s="15" t="s">
         <v>35</v>
@@ -11874,31 +11899,31 @@
         <v>62</v>
       </c>
       <c r="H151" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="J151" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="K151" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="J151" s="15" t="s">
+      <c r="L151" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="K151" s="15" t="s">
+      <c r="M151" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L151" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="M151" s="15" t="s">
+      <c r="N151" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="O151" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="N151" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="O151" s="15" t="s">
-        <v>611</v>
-      </c>
       <c r="Q151" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.15">
@@ -11906,13 +11931,13 @@
         <v>60</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E152" s="15" t="s">
         <v>22</v>
@@ -11924,31 +11949,31 @@
         <v>62</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I152" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="K152" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="J152" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="K152" s="15" t="s">
+      <c r="L152" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="M152" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L152" s="8" t="s">
+      <c r="N152" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="M152" s="15" t="s">
+      <c r="O152" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="N152" s="15" t="s">
+      <c r="Q152" s="30" t="s">
         <v>610</v>
-      </c>
-      <c r="O152" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q152" s="30" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.15">
@@ -11956,13 +11981,13 @@
         <v>60</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E153" s="15" t="s">
         <v>22</v>
@@ -11974,31 +11999,31 @@
         <v>62</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I153" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="J153" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="K153" s="15" t="s">
+      <c r="L153" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="M153" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L153" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="M153" s="15" t="s">
+      <c r="N153" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="O153" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="N153" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="O153" s="15" t="s">
-        <v>611</v>
-      </c>
       <c r="Q153" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="154" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12012,7 +12037,7 @@
         <v>352</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>22</v>
@@ -12021,28 +12046,28 @@
         <v>23</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I154" s="27" t="s">
         <v>128</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>358</v>
       </c>
       <c r="N154" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P154" s="34"/>
       <c r="Q154" s="7" t="s">
@@ -12060,7 +12085,7 @@
         <v>352</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E155" s="27" t="s">
         <v>35</v>
@@ -12069,28 +12094,28 @@
         <v>23</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I155" s="27" t="s">
         <v>128</v>
       </c>
       <c r="J155" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="L155" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L155" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>358</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P155" s="34"/>
       <c r="Q155" s="7" t="s">
@@ -12138,7 +12163,7 @@
         <v>130</v>
       </c>
       <c r="N156" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O156" s="38" t="s">
         <v>441</v>
@@ -12159,7 +12184,7 @@
         <v>436</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E157" s="38" t="s">
         <v>22</v>
@@ -12189,13 +12214,13 @@
         <v>130</v>
       </c>
       <c r="N157" s="38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O157" s="38" t="s">
         <v>441</v>
       </c>
       <c r="P157" s="38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Q157" s="38" t="s">
         <v>90</v>
@@ -12206,19 +12231,19 @@
         <v>1000</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>127</v>
@@ -12230,24 +12255,24 @@
         <v>128</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N158" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P158" s="8"/>
-      <c r="Q158" s="31" t="s">
-        <v>542</v>
+      <c r="Q158" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="159" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12255,13 +12280,13 @@
         <v>1000</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E159" s="27" t="s">
         <v>35</v>
@@ -12270,7 +12295,7 @@
         <v>23</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>283</v>
@@ -12279,19 +12304,19 @@
         <v>128</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L159" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M159" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N159" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P159" s="8"/>
       <c r="Q159" s="27" t="s">
@@ -12303,19 +12328,19 @@
         <v>1000</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>127</v>
@@ -12327,24 +12352,24 @@
         <v>128</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P160" s="8"/>
-      <c r="Q160" s="31" t="s">
-        <v>542</v>
+      <c r="Q160" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="161" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12352,13 +12377,13 @@
         <v>1000</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E161" s="27" t="s">
         <v>35</v>
@@ -12367,7 +12392,7 @@
         <v>23</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>283</v>
@@ -12376,19 +12401,19 @@
         <v>128</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L161" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M161" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P161" s="8"/>
       <c r="Q161" s="27" t="s">
@@ -12400,19 +12425,19 @@
         <v>1000</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>127</v>
@@ -12424,24 +12449,24 @@
         <v>128</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N162" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P162" s="8"/>
-      <c r="Q162" s="31" t="s">
-        <v>542</v>
+      <c r="Q162" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="163" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12449,13 +12474,13 @@
         <v>1000</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E163" s="27" t="s">
         <v>35</v>
@@ -12464,7 +12489,7 @@
         <v>23</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>283</v>
@@ -12473,19 +12498,19 @@
         <v>128</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L163" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M163" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P163" s="8"/>
       <c r="Q163" s="27" t="s">
@@ -12497,19 +12522,19 @@
         <v>1000</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>127</v>
@@ -12521,24 +12546,24 @@
         <v>128</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N164" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P164" s="8"/>
-      <c r="Q164" s="31" t="s">
-        <v>542</v>
+      <c r="Q164" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12546,13 +12571,13 @@
         <v>1000</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C165" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E165" s="27" t="s">
         <v>35</v>
@@ -12561,7 +12586,7 @@
         <v>23</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>283</v>
@@ -12570,19 +12595,19 @@
         <v>128</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L165" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P165" s="8"/>
       <c r="Q165" s="27" t="s">
@@ -12594,19 +12619,19 @@
         <v>1000</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>127</v>
@@ -12618,24 +12643,24 @@
         <v>128</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P166" s="8"/>
-      <c r="Q166" s="31" t="s">
-        <v>542</v>
+      <c r="Q166" s="30" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="167" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12643,13 +12668,13 @@
         <v>1000</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C167" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E167" s="27" t="s">
         <v>35</v>
@@ -12658,7 +12683,7 @@
         <v>23</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>283</v>
@@ -12667,19 +12692,19 @@
         <v>128</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L167" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M167" s="27" t="s">
         <v>130</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P167" s="8"/>
       <c r="Q167" s="27" t="s">
@@ -12727,7 +12752,7 @@
         <v>130</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O168" s="8" t="s">
         <v>132</v>
@@ -12778,7 +12803,7 @@
         <v>130</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O169" s="8" t="s">
         <v>132</v>
@@ -12829,7 +12854,7 @@
         <v>130</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O170" s="8" t="s">
         <v>132</v>
@@ -12880,7 +12905,7 @@
         <v>130</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O171" s="8" t="s">
         <v>132</v>
@@ -12931,7 +12956,7 @@
         <v>130</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O172" s="16" t="s">
         <v>180</v>
@@ -12976,13 +13001,13 @@
         <v>213</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>130</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O173" s="16" t="s">
         <v>180</v>
@@ -13033,7 +13058,7 @@
         <v>130</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O174" s="16" t="s">
         <v>180</v>
@@ -13078,13 +13103,13 @@
         <v>213</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M175" s="7" t="s">
         <v>130</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O175" s="16" t="s">
         <v>180</v>
@@ -13135,7 +13160,7 @@
         <v>130</v>
       </c>
       <c r="N176" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O176" s="16" t="s">
         <v>180</v>
@@ -13180,13 +13205,13 @@
         <v>213</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M177" s="7" t="s">
         <v>130</v>
       </c>
       <c r="N177" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O177" s="16" t="s">
         <v>180</v>
@@ -13219,19 +13244,19 @@
         <v>147</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I178" s="15" t="s">
         <v>64</v>
       </c>
       <c r="J178" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="K178" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="L178" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="K178" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="L178" s="15" t="s">
-        <v>639</v>
       </c>
       <c r="M178" s="15" t="s">
         <v>150</v>
@@ -13272,19 +13297,19 @@
         <v>147</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I179" s="15" t="s">
         <v>64</v>
       </c>
       <c r="J179" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="K179" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="L179" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="K179" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="L179" s="15" t="s">
-        <v>643</v>
       </c>
       <c r="M179" s="15" t="s">
         <v>150</v>
@@ -13299,7 +13324,7 @@
         <v>240</v>
       </c>
       <c r="Q179" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13307,13 +13332,13 @@
         <v>20</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E180" s="15" t="s">
         <v>22</v>
@@ -13325,25 +13350,25 @@
         <v>101</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I180" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J180" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L180" s="59" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M180" s="15" t="s">
         <v>105</v>
       </c>
       <c r="N180" s="58" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O180" s="58" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q180" s="15" t="s">
         <v>90</v>
@@ -13354,13 +13379,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E181" s="15" t="s">
         <v>35</v>
@@ -13372,25 +13397,25 @@
         <v>101</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I181" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J181" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L181" s="59" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M181" s="15" t="s">
         <v>105</v>
       </c>
       <c r="N181" s="58" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O181" s="58" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q181" s="15" t="s">
         <v>90</v>
@@ -13432,42 +13457,41 @@
     <hyperlink ref="Q125" r:id="rId30"/>
     <hyperlink ref="Q126" r:id="rId31"/>
     <hyperlink ref="Q128" r:id="rId32"/>
-    <hyperlink ref="Q129" r:id="rId33"/>
-    <hyperlink ref="Q130" r:id="rId34"/>
-    <hyperlink ref="Q132" r:id="rId35"/>
-    <hyperlink ref="Q133" r:id="rId36"/>
-    <hyperlink ref="Q134" r:id="rId37"/>
-    <hyperlink ref="Q136" r:id="rId38"/>
-    <hyperlink ref="Q137" r:id="rId39"/>
-    <hyperlink ref="Q138" r:id="rId40"/>
-    <hyperlink ref="Q105" r:id="rId41"/>
-    <hyperlink ref="Q111" r:id="rId42"/>
-    <hyperlink ref="Q120" r:id="rId43"/>
-    <hyperlink ref="Q123" r:id="rId44"/>
-    <hyperlink ref="Q122" r:id="rId45"/>
-    <hyperlink ref="Q3" r:id="rId46"/>
-    <hyperlink ref="Q4" r:id="rId47"/>
-    <hyperlink ref="Q135" r:id="rId48" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/aarch64/Packages/FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm"/>
-    <hyperlink ref="Q54" r:id="rId49" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
-    <hyperlink ref="Q5" r:id="rId50"/>
-    <hyperlink ref="Q31" r:id="rId51"/>
-    <hyperlink ref="Q63" r:id="rId52"/>
-    <hyperlink ref="Q121" r:id="rId53"/>
-    <hyperlink ref="Q150" r:id="rId54"/>
-    <hyperlink ref="Q151:Q153" r:id="rId55" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q158" r:id="rId56"/>
-    <hyperlink ref="Q160" r:id="rId57"/>
-    <hyperlink ref="Q162" r:id="rId58"/>
-    <hyperlink ref="Q164" r:id="rId59"/>
-    <hyperlink ref="Q166" r:id="rId60"/>
-    <hyperlink ref="Q179" r:id="rId61"/>
-    <hyperlink ref="Q90:Q91" r:id="rId62" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm"/>
-    <hyperlink ref="Q82" r:id="rId63"/>
-    <hyperlink ref="Q83:Q87" r:id="rId64" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.2-1.0.4.0-openeuler20.03-x86_64-ext.tgz"/>
-    <hyperlink ref="Q50" r:id="rId65"/>
+    <hyperlink ref="Q132" r:id="rId33"/>
+    <hyperlink ref="Q133" r:id="rId34"/>
+    <hyperlink ref="Q134" r:id="rId35"/>
+    <hyperlink ref="Q136" r:id="rId36"/>
+    <hyperlink ref="Q137" r:id="rId37"/>
+    <hyperlink ref="Q138" r:id="rId38"/>
+    <hyperlink ref="Q105" r:id="rId39"/>
+    <hyperlink ref="Q111" r:id="rId40"/>
+    <hyperlink ref="Q120" r:id="rId41"/>
+    <hyperlink ref="Q123" r:id="rId42"/>
+    <hyperlink ref="Q122" r:id="rId43"/>
+    <hyperlink ref="Q3" r:id="rId44"/>
+    <hyperlink ref="Q4" r:id="rId45"/>
+    <hyperlink ref="Q135" r:id="rId46" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/aarch64/Packages/FC-IN300-openEuler20.03-hifc-3.7.0.8-aarch64.rpm"/>
+    <hyperlink ref="Q54" r:id="rId47" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/extras-tgz/aarch64/elx-lpfc-dd-openEuler20-12.8.340.17-ds-1.aarch64.tgz"/>
+    <hyperlink ref="Q5" r:id="rId48"/>
+    <hyperlink ref="Q31" r:id="rId49"/>
+    <hyperlink ref="Q63" r:id="rId50"/>
+    <hyperlink ref="Q121" r:id="rId51"/>
+    <hyperlink ref="Q150" r:id="rId52"/>
+    <hyperlink ref="Q151:Q153" r:id="rId53" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
+    <hyperlink ref="Q179" r:id="rId54"/>
+    <hyperlink ref="Q90:Q91" r:id="rId55" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/NIC-X710_X722_XL710_XXV710-openEuler20.03SP1-i40e-2.12.6-1-x86_64.rpm"/>
+    <hyperlink ref="Q82" r:id="rId56"/>
+    <hyperlink ref="Q83:Q87" r:id="rId57" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.2-1.0.4.0-openeuler20.03-x86_64-ext.tgz"/>
+    <hyperlink ref="Q50" r:id="rId58"/>
+    <hyperlink ref="Q129:Q130" r:id="rId59" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP1/contrib/drivers/x86_64/Packages/kmod-megaraid_sas-07.714.04.00-1-x86_64.rpm"/>
+    <hyperlink ref="Q158" r:id="rId60"/>
+    <hyperlink ref="Q160" r:id="rId61"/>
+    <hyperlink ref="Q162" r:id="rId62"/>
+    <hyperlink ref="Q164" r:id="rId63"/>
+    <hyperlink ref="Q166" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId65"/>
 </worksheet>
 </file>
 
